--- a/SingaporeCargo/Test.xlsx
+++ b/SingaporeCargo/Test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvanausdeln\Dropbox (Blume Global)\Documents\UiPath\AirCarrierRPA\TurkishCargo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvanausdeln\Dropbox (Blume Global)\Documents\UiPath\AirCarrierRPA\SingaporeCargo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>WONumber</t>
   </si>
@@ -32,64 +32,49 @@
     <t>ReferenceNumber</t>
   </si>
   <si>
-    <t>235-34474882</t>
-  </si>
-  <si>
-    <t>22E0007436</t>
-  </si>
-  <si>
-    <t>235-37989943</t>
-  </si>
-  <si>
-    <t>235-38048894</t>
-  </si>
-  <si>
-    <t>DJYYZA4071377</t>
-  </si>
-  <si>
-    <t>DJYYZA4071372</t>
-  </si>
-  <si>
-    <t>DJYYZA4071368</t>
-  </si>
-  <si>
-    <t>235-33206526</t>
-  </si>
-  <si>
-    <t>DJANKA4070970</t>
-  </si>
-  <si>
-    <t>23K0232316</t>
-  </si>
-  <si>
-    <t>235-37083992</t>
-  </si>
-  <si>
-    <t>235-38196572</t>
-  </si>
-  <si>
-    <t>DJAMSA4070103</t>
-  </si>
-  <si>
-    <t>235-36599920</t>
-  </si>
-  <si>
-    <t>DJBOMA4069910</t>
-  </si>
-  <si>
-    <t>22C0420766</t>
-  </si>
-  <si>
-    <t>235-36640866</t>
-  </si>
-  <si>
-    <t>DJANKA4069375</t>
-  </si>
-  <si>
-    <t>23K0232001</t>
-  </si>
-  <si>
     <t>Waybill Number</t>
+  </si>
+  <si>
+    <t>618-61114222</t>
+  </si>
+  <si>
+    <t>T980003356</t>
+  </si>
+  <si>
+    <t>618-67590331</t>
+  </si>
+  <si>
+    <t>T970006727</t>
+  </si>
+  <si>
+    <t>618-66552426</t>
+  </si>
+  <si>
+    <t>618-68834953</t>
+  </si>
+  <si>
+    <t>618-66337644</t>
+  </si>
+  <si>
+    <t>T970006725</t>
+  </si>
+  <si>
+    <t>618-68915943</t>
+  </si>
+  <si>
+    <t>618-65651504</t>
+  </si>
+  <si>
+    <t>618-66537026</t>
+  </si>
+  <si>
+    <t>618-65652510</t>
+  </si>
+  <si>
+    <t>618-66337003</t>
+  </si>
+  <si>
+    <t>DJBRUA4191619</t>
   </si>
 </sst>
 </file>
@@ -411,7 +396,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A2" sqref="A2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,7 +408,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -434,68 +419,68 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>2460116877</v>
-      </c>
-      <c r="C3">
-        <v>2460116877</v>
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>2951092295</v>
       </c>
       <c r="C4">
-        <v>2101099088</v>
+        <v>2951092295</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>2720644646</v>
       </c>
       <c r="C5">
-        <v>2101099087</v>
+        <v>2720644646</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>2101099086</v>
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
         <v>11</v>
+      </c>
+      <c r="B7">
+        <v>2431082149</v>
+      </c>
+      <c r="C7">
+        <v>2431082149</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -503,43 +488,43 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>2711768766</v>
+        <v>2951092330</v>
       </c>
       <c r="C8">
-        <v>2711768766</v>
+        <v>2951092330</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
-        <v>14</v>
+      <c r="B9">
+        <v>2711776095</v>
       </c>
       <c r="C9">
-        <v>2482440833</v>
+        <v>2711776095</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>2711776390</v>
+      </c>
+      <c r="C10">
+        <v>2711776390</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>2600523679</v>
       </c>
     </row>
   </sheetData>
